--- a/run 2 384 wells analysis/fadu_data_all_drugs_vs_ctrl_plot_run2_CTB.xlsx
+++ b/run 2 384 wells analysis/fadu_data_all_drugs_vs_ctrl_plot_run2_CTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serebrii/Work/Flavi_screen/run 2 384 wells analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilya/Work/Flavi CBD screen/CBD_synergy_2022/run 2 384 wells analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B319DE5B-879D-524C-847E-9227F5DBB2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3940FF1F-70E1-7A4C-9D89-454F73EA6F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2980" windowWidth="23900" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="8460" windowWidth="44560" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fadu_data_all_drugs_vs_ctrl_plo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>drugs</t>
   </si>
@@ -438,15 +438,34 @@
   </si>
   <si>
     <t>CBD2 helps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inhibiting below threshold:</t>
+  </si>
+  <si>
+    <t>Moderately inhibiting:</t>
+  </si>
+  <si>
+    <t>Of these, higher conc not inhibiting stronger</t>
+  </si>
+  <si>
+    <t>Of these, higher conc  inhibiting stronger</t>
+  </si>
+  <si>
+    <t>Overall, higher conc  inhibiting less</t>
+  </si>
+  <si>
+    <t>In background, fluctuated UP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -881,7 +900,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -924,15 +943,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -972,6 +993,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1009,21 +1031,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1337,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN96"/>
+  <dimension ref="A1:AQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP13" sqref="AP13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1349,9 +1371,11 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="29.6640625" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1730,8 +1754,15 @@
         <f t="shared" ref="AN3:AN66" si="6">(U3/T3&gt;1.15)</f>
         <v>0</v>
       </c>
+      <c r="AO3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIFS(R1:R76,"&lt;0.85")</f>
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1859,8 +1890,15 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="AO4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP4">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65")</f>
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1988,8 +2026,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP5">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65",AH:AH,"&gt;0.95")</f>
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2117,8 +2162,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP6">
+        <f>COUNTIFS(R:R,"&lt;0.85", R:R,"&gt;0.65",AH:AH,"&lt;0.85")</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2246,8 +2298,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP7">
+        <f>COUNTIFS(AH1:AH76,"&gt;=1.15")</f>
+        <v>22</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f>AP7/75</f>
+        <v>0.29333333333333333</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2375,8 +2438,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="AO8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP8">
+        <f>COUNTIFS(AH77:AH86,"&gt;=1.15")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5">
+        <f>AP8/10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2505,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2634,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -2892,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -3021,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -3150,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3279,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -13733,11 +13807,11 @@
     <sortCondition descending="1" ref="AJ2:AJ96"/>
   </sortState>
   <conditionalFormatting sqref="R2:U96">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThanOrEqual">
+      <formula>1.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThanOrEqual">
       <formula>0.85</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThanOrEqual">
-      <formula>1.15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:AG96">
